--- a/Release/表四：不动产.xlsx
+++ b/Release/表四：不动产.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -56,6 +56,46 @@
   <si>
     <t>面积  （㎡）</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -652,7 +692,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -702,16 +742,36 @@
       <c r="K1" s="14"/>
     </row>
     <row r="2" spans="1:11" s="6" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="9"/>
+      <c r="A2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="K2" s="15"/>
     </row>
     <row r="3" spans="1:11" s="6" customFormat="1" ht="22.5" customHeight="1">
